--- a/Word/word_data.xlsx
+++ b/Word/word_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1f843cb903dbc88/GitHub/elijahcreative.github.io/Word/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_E007872AC858395CDC610222005189F3A02D2984" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28D62D41-5CA7-7C48-A8D8-BA8BA865C51D}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_E007872AC858395CDC610222005189F3A02D2984" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB0ED52-7B1B-7B45-8632-EDAA276E40F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WordData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2233,10 +2233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2258,6 +2257,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3573,7 +3576,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7C08E45-8702-1840-A510-6DC64148D31A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7C08E45-8702-1840-A510-6DC64148D31A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E146" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4522,13 +4525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="5" max="5" width="80.83203125" customWidth="1"/>
+    <col min="6" max="6" width="194.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7368,7 +7376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938D0150-0FDA-454F-A1FD-70183FA0897B}">
   <dimension ref="A2:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7511,29 +7519,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>GETPIVOTDATA("word",$A$3,"type","adjective")/GETPIVOTDATA("word",$A$3)</f>
         <v>0.6028368794326241</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>GETPIVOTDATA("word",$A$3,"type","noun")/GETPIVOTDATA("word",$A$3)</f>
         <v>0.26950354609929078</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>GETPIVOTDATA("word",$A$3,"type","verb")/GETPIVOTDATA("word",$A$3)</f>
         <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>710</v>
       </c>
       <c r="B4" t="s">
@@ -7550,1852 +7558,1570 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="E52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="E53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="E54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="E57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="E60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="E67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="E68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B70" s="2">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="E70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="E71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="2">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="E73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="E74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="E75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="E76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="E77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="E78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B79" s="2">
-        <v>1</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="E79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="E80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B82" s="2">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="E82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="E83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B84" s="2">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="E84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="E85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B86" s="2">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2">
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="E86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2">
-        <v>1</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="E88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2">
-        <v>1</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B91" s="2">
-        <v>1</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="E91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B92" s="2">
-        <v>1</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="E92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="E93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="B96" s="2">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2">
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="E96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2">
-        <v>1</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B99" s="2">
-        <v>1</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="E99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B100" s="2">
-        <v>1</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2">
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="E100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2">
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="E103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="E104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="E105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2">
-        <v>1</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2">
-        <v>1</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="E108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="E109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2">
-        <v>1</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="E110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2">
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="E111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="E112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2">
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="E113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="E114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="B115" s="2">
-        <v>1</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2">
-        <v>1</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="E116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B117" s="2">
-        <v>1</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="E117">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2">
-        <v>1</v>
-      </c>
-      <c r="E118" s="2">
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B119" s="2">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="E119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2">
-        <v>1</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="E120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B121" s="2">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="E121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B122" s="2">
-        <v>1</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="E122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="E123">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="E124">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="E125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B126" s="2">
-        <v>1</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="E126">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2">
-        <v>1</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="2">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="E128">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="E129">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="E130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2">
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="E131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B132" s="2">
-        <v>1</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="E132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2">
-        <v>1</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B134" s="2">
-        <v>1</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="E134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2">
-        <v>1</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="E135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B136" s="2">
-        <v>1</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="E136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B137" s="2">
-        <v>1</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="E137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B138" s="2">
-        <v>1</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2">
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="E138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2">
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="E139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2">
-        <v>1</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B141" s="2">
-        <v>1</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="E141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2">
-        <v>1</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="E142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B143" s="2">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2">
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="E143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2">
-        <v>1</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2">
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>85</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>38</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146">
         <v>18</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146">
         <v>141</v>
       </c>
     </row>
